--- a/lesson-18-ai/GenAI/EOA-seminar/docs/HI-AGI-GenAI-TT.xlsx
+++ b/lesson-18-ai/GenAI/EOA-seminar/docs/HI-AGI-GenAI-TT.xlsx
@@ -37,10 +37,25 @@
     <t xml:space="preserve">Turing Test (TT)</t>
   </si>
   <si>
+    <t xml:space="preserve">Current Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theoretical/Not yet achieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exists and rapidly evolving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exists as a concept, debated effectiveness</t>
+  </si>
+  <si>
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Natural intelligence demonstrated by humans</t>
+    <t xml:space="preserve">Natural intelligence demonstrated by humans (collectively)</t>
   </si>
   <si>
     <t xml:space="preserve">Hypothetical AI that matches or exceeds human intelligence across all domains</t>
@@ -55,15 +70,9 @@
     <t xml:space="preserve">Cognitive Abilities</t>
   </si>
   <si>
-    <t xml:space="preserve">• Read
-• Write
-• Listen
-• Speak
-• Plan
-• Reason
-• Problem-solve
-• Learn
-• Adapt</t>
+    <t xml:space="preserve">• Read / • Write / • Listen / • Speak
+• Plan / • Reason / • Problem-solve
+• Learn / • Adapt</t>
   </si>
   <si>
     <t xml:space="preserve">• Potentially all human cognitive abilities
@@ -84,12 +93,10 @@
     <t xml:space="preserve">Emotional &amp; Social Intelligence</t>
   </si>
   <si>
-    <t xml:space="preserve">• Empathy
+    <t xml:space="preserve">• Empathy / • Care giving / • Collaboration
 • Emotional regulation
 • Social interaction
-• Relationship building
-• Care giving
-• Collaboration</t>
+• Relationship building</t>
   </si>
   <si>
     <t xml:space="preserve">• Theoretical understanding and simulation of emotions
@@ -108,10 +115,34 @@
     <t xml:space="preserve">Creativity</t>
   </si>
   <si>
-    <t xml:space="preserve">• Original ideas
-• Artistic expression
-• Innovation
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">• Original ideas / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">• Innovation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">• Artistic expression
 • Dreaming (both sleeping and aspirational)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">• Potential for novel idea generation
@@ -130,10 +161,9 @@
     <t xml:space="preserve">Physical Abilities</t>
   </si>
   <si>
-    <t xml:space="preserve">• Motor skills
+    <t xml:space="preserve">• Motor skills / • Reproduction
 • Sensory perception
-• Physical interaction with environment
-• Reproduction</t>
+• Physical interaction with environment</t>
   </si>
   <si>
     <t xml:space="preserve">• Potential for advanced robotic integration
@@ -150,10 +180,8 @@
     <t xml:space="preserve">Self-Awareness</t>
   </si>
   <si>
-    <t xml:space="preserve">• Consciousness
-• Self-reflection
-• Metacognition
-• Existential thinking (e.g., contemplating mortality)</t>
+    <t xml:space="preserve">• Consciousness / • Self-reflection
+• Metacognition / • Existential thinking (e.g., contemplating mortality)</t>
   </si>
   <si>
     <t xml:space="preserve">• Debated philosophical question
@@ -172,8 +200,7 @@
   <si>
     <t xml:space="preserve">• Experience joy, sadness, anger, fear
 • Complex emotions: nostalgia, melancholy
-• Aspire and despair
-• Love and grieve</t>
+• Aspire and despair / • Love and grieve</t>
   </si>
   <si>
     <t xml:space="preserve">• Theoretical potential to simulate full emotional range
@@ -231,6 +258,49 @@
 • Cannot form genuine bonds</t>
   </si>
   <si>
+    <t xml:space="preserve">Unique Human Traits</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">• Humor / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">• Intuition / • Gut feelings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">• Appreciation of beauty
+• Experience of qualia / • Serendipity</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">• Uncertain if these can be truly replicated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Can mimic but not genuinely experience
+• Generate content related to these concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Potentially simulate these traits in conversation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Limitations</t>
   </si>
   <si>
@@ -253,42 +323,6 @@
   <si>
     <t xml:space="preserve">• Limited to language-based interaction
 • May not test all aspects of intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Human Traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Sense of humor
-• Appreciation of beauty
-• Experience of qualia
-• Intuition
-• Gut feelings
-• Serendipity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Uncertain if these can be truly replicated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Can mimic but not genuinely experience
-• Generate content related to these concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Potentially simulate these traits in conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theoretical/Not yet achieved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exists and rapidly evolving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exists as a concept, debated effectiveness</t>
   </si>
 </sst>
 </file>
@@ -298,11 +332,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -324,10 +359,19 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
       <name val="Times New Roman"/>
       <family val="0"/>
       <charset val="1"/>
@@ -338,8 +382,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,7 +398,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFBBE33D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -400,24 +461,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,7 +540,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -474,7 +559,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -484,7 +569,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -494,249 +579,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="30.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="31.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="26.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="46.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="43.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="46.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
